--- a/data/trans_orig/dukeCONF-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,73</t>
+          <t>32,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,95</t>
+          <t>32,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>32,35</t>
+          <t>32,47</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,03; 33,21</t>
+          <t>32,1; 33,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,93; 32,58</t>
+          <t>30,94; 32,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,84; 32,79</t>
+          <t>31,96; 32,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,36</t>
+          <t>31,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,69</t>
+          <t>32,13</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,54</t>
+          <t>31,81</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,8; 31,9</t>
+          <t>30,88; 31,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,19; 32,15</t>
+          <t>31,5; 33,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,11; 31,86</t>
+          <t>31,39; 32,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,83</t>
+          <t>30,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,17</t>
+          <t>31,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,0</t>
+          <t>31,07</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,38; 31,23</t>
+          <t>30,47; 31,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,84; 31,46</t>
+          <t>30,91; 31,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,74; 31,26</t>
+          <t>30,81; 31,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,74</t>
+          <t>31,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>30,71</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,62</t>
+          <t>31,28</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 31,63</t>
+          <t>30,32; 33,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,17; 30,83</t>
+          <t>30,37; 31,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,32; 31,14</t>
+          <t>30,49; 32,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,63</t>
+          <t>29,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,27</t>
+          <t>29,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>29,45</t>
+          <t>29,55</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,16; 30,05</t>
+          <t>29,28; 30,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,91; 29,63</t>
+          <t>28,98; 29,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,15; 29,72</t>
+          <t>29,24; 29,82</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,24</t>
+          <t>28,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,19</t>
+          <t>29,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,96</t>
+          <t>29,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,34</t>
+          <t>29,77</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,33</t>
+          <t>28,07</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,1</t>
+          <t>29,2</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,9</t>
+          <t>28,17</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>29,8</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,72</t>
+          <t>28,37</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>29,14</t>
+          <t>29,41</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>28,36</t>
+          <t>28,78</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>28,94</t>
+          <t>29,79</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,73; 28,75</t>
+          <t>27,99; 29,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,69; 29,68</t>
+          <t>29,0; 30,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,54; 29,35</t>
+          <t>28,94; 29,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,98; 29,7</t>
+          <t>29,28; 30,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,83; 27,84</t>
+          <t>27,46; 28,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,73; 29,51</t>
+          <t>28,58; 29,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,46; 28,31</t>
+          <t>27,65; 28,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,27; 28,94</t>
+          <t>29,35; 30,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,35; 28,06</t>
+          <t>27,92; 28,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,84; 29,44</t>
+          <t>29,0; 29,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,07; 28,63</t>
+          <t>28,42; 29,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>28,69; 29,18</t>
+          <t>29,49; 30,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30,05</t>
+          <t>27,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>28,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,67</t>
+          <t>28,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,57</t>
+          <t>28,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,34</t>
+          <t>26,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,03</t>
+          <t>29,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,44</t>
+          <t>27,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,25</t>
+          <t>27,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>29,69</t>
+          <t>26,96</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30,3</t>
+          <t>28,86</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>29,55</t>
+          <t>27,9</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>28,23</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>26,69; 28,37</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>27,77; 29,37</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27,66; 28,9</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28,42; 29,49</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 27,31</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>28,47; 29,6</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 28,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27,28; 28,18</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 27,54</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>28,41; 29,32</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27,42; 28,34</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27,85; 28,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>30,05</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30,59</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29,67</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>30,94</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29,34</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30,03</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29,44</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30,44</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29,69</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>30,3</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29,55</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>30,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>29,88; 30,24</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>30,41; 30,77</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>29,49; 29,82</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>30,37; 30,82</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30,57; 31,86</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>29,14; 29,53</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>29,85; 30,2</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>29,28; 29,59</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>30,09; 30,41</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 30,8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>29,55; 29,82</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>30,18; 30,43</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>29,44; 29,67</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>30,26; 30,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>30,47; 31,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/dukeCONF-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Edad-trans_orig.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,86; 31,6</t>
+          <t>30,85; 31,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,52 +734,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,37; 31,13</t>
+          <t>30,39; 31,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 33,34</t>
+          <t>32,17; 33,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,34</t>
+          <t>30,46; 31,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,08; 31,83</t>
+          <t>31,08; 31,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,6; 31,34</t>
+          <t>30,61; 31,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,94; 32,67</t>
+          <t>31,01; 32,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,77; 31,37</t>
+          <t>30,8; 31,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,32; 31,87</t>
+          <t>31,31; 31,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,63; 31,13</t>
+          <t>30,62; 31,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,96; 32,92</t>
+          <t>31,85; 32,89</t>
         </is>
       </c>
     </row>
@@ -864,42 +864,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,77; 31,42</t>
+          <t>30,74; 31,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,85; 31,56</t>
+          <t>30,86; 31,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,03; 30,69</t>
+          <t>30,03; 30,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,88; 31,98</t>
+          <t>30,85; 31,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,96; 30,78</t>
+          <t>29,88; 30,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 31,04</t>
+          <t>30,26; 31,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,33; 30,92</t>
+          <t>30,32; 30,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,5; 33,23</t>
+          <t>31,49; 33,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,68; 31,21</t>
+          <t>30,72; 31,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,26; 30,71</t>
+          <t>30,28; 30,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,39; 32,54</t>
+          <t>31,42; 32,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,5; 30,37</t>
+          <t>29,49; 30,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,01; 30,8</t>
+          <t>30,01; 30,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,64; 30,33</t>
+          <t>29,68; 30,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,32</t>
+          <t>30,48; 31,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,6; 30,39</t>
+          <t>29,61; 30,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,88; 30,63</t>
+          <t>29,91; 30,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,67; 30,39</t>
+          <t>29,71; 30,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,91; 31,51</t>
+          <t>30,89; 31,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,68; 30,28</t>
+          <t>29,7; 30,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,08; 30,6</t>
+          <t>30,04; 30,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,79; 30,27</t>
+          <t>29,79; 30,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,81; 31,33</t>
+          <t>30,79; 31,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,31; 30,22</t>
+          <t>29,32; 30,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,99; 30,82</t>
+          <t>29,95; 30,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,54; 29,44</t>
+          <t>28,55; 29,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,32; 33,57</t>
+          <t>30,28; 33,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,67; 29,64</t>
+          <t>28,69; 29,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 29,96</t>
+          <t>29,11; 29,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 29,72</t>
+          <t>28,97; 29,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,37; 31,42</t>
+          <t>30,35; 31,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,12; 29,82</t>
+          <t>29,13; 29,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,72; 30,32</t>
+          <t>29,68; 30,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,88; 29,44</t>
+          <t>28,89; 29,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 32,7</t>
+          <t>30,49; 32,75</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,81; 29,98</t>
+          <t>28,81; 29,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,11; 31,15</t>
+          <t>30,17; 31,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,64; 29,6</t>
+          <t>28,66; 29,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 30,15</t>
+          <t>29,27; 30,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,8; 28,89</t>
+          <t>27,85; 28,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,97; 30,03</t>
+          <t>28,94; 29,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,05; 29,04</t>
+          <t>28,1; 29,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,98; 29,69</t>
+          <t>28,98; 29,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,47; 29,25</t>
+          <t>28,46; 29,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,72; 30,45</t>
+          <t>29,73; 30,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,52; 29,18</t>
+          <t>28,53; 29,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,24; 29,82</t>
+          <t>29,27; 29,83</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,99; 29,33</t>
+          <t>28,11; 29,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,0; 30,21</t>
+          <t>28,99; 30,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,94; 29,98</t>
+          <t>28,99; 29,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,28; 30,23</t>
+          <t>29,31; 30,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,46; 28,65</t>
+          <t>27,47; 28,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,58; 29,72</t>
+          <t>28,62; 29,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,65; 28,66</t>
+          <t>27,7; 28,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,35; 30,18</t>
+          <t>29,37; 30,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,92; 28,82</t>
+          <t>27,91; 28,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,0; 29,81</t>
+          <t>28,99; 29,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,42; 29,12</t>
+          <t>28,41; 29,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,49; 30,09</t>
+          <t>29,48; 30,07</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,69; 28,37</t>
+          <t>26,71; 28,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,77; 29,37</t>
+          <t>27,79; 29,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,66; 28,9</t>
+          <t>27,69; 28,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,42; 29,49</t>
+          <t>28,43; 29,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,73; 27,31</t>
+          <t>25,69; 27,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,47; 29,6</t>
+          <t>28,44; 29,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,99; 28,27</t>
+          <t>26,91; 28,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,28; 28,18</t>
+          <t>27,29; 28,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,27; 27,54</t>
+          <t>26,41; 27,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,41; 29,32</t>
+          <t>28,38; 29,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,42; 28,34</t>
+          <t>27,45; 28,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>27,85; 28,55</t>
+          <t>27,83; 28,58</t>
         </is>
       </c>
     </row>
@@ -1704,47 +1704,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,88; 30,24</t>
+          <t>29,87; 30,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,41; 30,77</t>
+          <t>30,39; 30,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,49; 29,82</t>
+          <t>29,51; 29,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,57; 31,86</t>
+          <t>30,57; 31,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,14; 29,53</t>
+          <t>29,14; 29,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,85; 30,2</t>
+          <t>29,85; 30,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,28; 29,59</t>
+          <t>29,28; 29,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,26; 30,8</t>
+          <t>30,23; 30,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,55; 29,82</t>
+          <t>29,57; 29,83</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,22</t>
+          <t>30,47; 31,27</t>
         </is>
       </c>
     </row>
